--- a/Diario de fusão.xlsx
+++ b/Diario de fusão.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C612"/>
+  <dimension ref="A1:C822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8269,15 +8269,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>3410</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
+      <c r="B603" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C603" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="604">
@@ -8286,15 +8282,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>3581</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>362</t>
-        </is>
+      <c r="B604" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C604" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="605">
@@ -8303,15 +8295,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>2811</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
+      <c r="B605" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C605" t="n">
+        <v>634</v>
       </c>
     </row>
     <row r="606">
@@ -8320,15 +8308,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>3630</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
+      <c r="B606" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C606" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="607">
@@ -8337,15 +8321,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>3760</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
+      <c r="B607" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C607" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="608">
@@ -8354,15 +8334,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>2651</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
+      <c r="B608" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C608" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="609">
@@ -8371,15 +8347,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>3631</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B609" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -8388,15 +8360,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>3591</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="B610" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C610" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="611">
@@ -8405,15 +8373,11 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>3752</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="B611" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C611" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="612">
@@ -8422,14 +8386,2784 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="B612" t="inlineStr">
+      <c r="B612" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C612" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C613" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C614" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C616" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C617" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C618" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C619" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C621" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C622" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C623" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C624" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C625" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C626" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C627" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C628" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C629" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C630" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C631" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C632" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C633" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C634" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C635" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C636" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C637" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C638" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C639" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C641" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C642" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C643" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C644" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C645" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C646" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C647" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C648" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C649" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C650" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C651" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C653" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C654" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C655" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C656" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C657" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C658" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C659" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C660" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C661" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C662" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C663" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C664" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C665" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C666" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C667" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C668" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C669" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C670" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C671" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C672" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C673" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C674" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C675" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C676" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C677" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C678" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C679" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C680" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C681" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C682" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C683" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C684" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C685" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C686" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C687" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C688" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C689" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C690" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C691" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C692" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C693" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C694" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C695" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C696" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C697" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C698" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C699" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C700" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C701" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C702" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C703" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C704" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C705" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C706" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C707" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C708" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C709" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C710" t="n">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C711" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C712" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C713" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C714" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C715" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C716" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C717" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C718" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C719" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C720" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C721" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C722" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C723" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C724" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C725" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C727" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C728" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C729" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C730" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C731" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C732" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C733" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C734" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C735" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C737" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C738" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C739" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C741" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C742" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C743" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C744" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C745" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C746" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C747" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C748" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C749" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C750" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C751" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C752" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C753" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C754" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C755" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C756" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C757" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C758" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C759" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C760" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C761" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C762" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C763" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C764" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C765" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C766" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C767" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C768" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C769" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C770" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C771" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C772" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C773" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C774" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C775" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C776" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C777" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C778" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C779" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C780" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C781" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C782" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C783" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C784" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C785" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C786" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C787" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C788" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C790" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C791" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C792" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C793" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C794" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C795" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C796" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C797" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C798" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C799" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C800" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C801" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C802" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C803" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C804" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C805" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C806" t="n">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C807" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C808" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C809" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C810" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C811" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2651</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>3410</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>3631</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>3630</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>3752</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
         <is>
           <t>3771</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>57</t>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>58</t>
         </is>
       </c>
     </row>

--- a/Diario de fusão.xlsx
+++ b/Diario de fusão.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C822"/>
+  <dimension ref="A1:C877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10986,15 +10986,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>2811</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr">
-        <is>
-          <t>650</t>
-        </is>
+      <c r="B812" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C812" t="n">
+        <v>650</v>
       </c>
     </row>
     <row r="813">
@@ -11003,15 +10999,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>3581</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
+      <c r="B813" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C813" t="n">
+        <v>457</v>
       </c>
     </row>
     <row r="814">
@@ -11020,15 +11012,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>2651</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="B814" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C814" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="815">
@@ -11037,15 +11025,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>3410</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
+      <c r="B815" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C815" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="816">
@@ -11054,15 +11038,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>3760</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
+      <c r="B816" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C816" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="817">
@@ -11071,15 +11051,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>3631</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
+      <c r="B817" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C817" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="818">
@@ -11088,15 +11064,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>3630</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="B818" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C818" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="819">
@@ -11105,15 +11077,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>3761</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="B819" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C819" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="820">
@@ -11122,15 +11090,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>3591</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="B820" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C820" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="821">
@@ -11139,15 +11103,11 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>3752</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="B821" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C821" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="822">
@@ -11156,14 +11116,769 @@
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="B822" t="inlineStr">
+      <c r="B822" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C822" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C823" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C824" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C825" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C826" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C827" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C828" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C829" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C830" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C831" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C832" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C833" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C834" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C835" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C836" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C837" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C838" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C839" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C840" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C841" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C842" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C843" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C844" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C845" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C846" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C847" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C848" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C849" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C850" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C851" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C852" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C853" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C854" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C855" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C856" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C857" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C858" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C859" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>3761</v>
+      </c>
+      <c r="C860" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C861" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C862" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C863" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C864" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>3752</v>
+      </c>
+      <c r="C865" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C866" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2651</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>3410</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>3631</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>3630</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
         <is>
           <t>3771</t>
         </is>
       </c>
-      <c r="C822" t="inlineStr">
-        <is>
-          <t>58</t>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>3752</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
